--- a/medicine/Sexualité et sexologie/Hommes_à_louer/Hommes_à_louer.xlsx
+++ b/medicine/Sexualité et sexologie/Hommes_à_louer/Hommes_à_louer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hommes_%C3%A0_louer</t>
+          <t>Hommes_à_louer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hommes à louer est un film documentaire de 2008 du réalisateur canadien Rodrigue Jean, sur la prostitution masculine à Montréal. Le film a été tourné sur une période d'un an au Village gai de Montréal[1].
-L'Office national du film du Canada écrit sur Hommes à louer que « Loin de tout voyeurisme et de toute fausse compassion, le film accueille cette parole hors-la-loi et redonne une existence sociale à ces laissés-pour-compte à l’humanité bouleversante[2] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hommes à louer est un film documentaire de 2008 du réalisateur canadien Rodrigue Jean, sur la prostitution masculine à Montréal. Le film a été tourné sur une période d'un an au Village gai de Montréal.
+L'Office national du film du Canada écrit sur Hommes à louer que « Loin de tout voyeurisme et de toute fausse compassion, le film accueille cette parole hors-la-loi et redonne une existence sociale à ces laissés-pour-compte à l’humanité bouleversante ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hommes_%C3%A0_louer</t>
+          <t>Hommes_à_louer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le documentaire suit la vie de 11 hommes prostitués au cours d'une année, racontant leurs luttes pour survivre aux dépendances, aux abus et à la stigmatisation liés à l'alcool et aux drogues - et à leur passé troublé[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le documentaire suit la vie de 11 hommes prostitués au cours d'une année, racontant leurs luttes pour survivre aux dépendances, aux abus et à la stigmatisation liés à l'alcool et aux drogues - et à leur passé troublé,.
 Pris au piège dans un cercle vicieux de prostitution et de drogue, ils poursuivent leur vie, réalisant que leurs perspectives d'avenir sont sombres.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hommes_%C3%A0_louer</t>
+          <t>Hommes_à_louer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Festivals</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2009, le documentaire était une sélection officielle pour les festivals suivants :
 Festival du nouveau cinéma de Montréal
